--- a/outcome/appendix/Supplementary Appendix 2_3.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2_3.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">forecast</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t xml:space="preserve">actual</t>
   </si>
   <si>
     <t xml:space="preserve">diff</t>
